--- a/CloudServiceDataset.xlsx
+++ b/CloudServiceDataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/935c96311a8738b6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hduc2\Desktop\Btec\BI\Data\csv_processing\Data_ASM2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{E5927CDE-E732-4500-A6C0-5E914857A0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A920660-F6DA-4232-9167-47E93C6E2136}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943178E-A7C3-45E7-BB57-BB941AF42C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{9E2A4F17-AE08-48D1-9EEE-5224D8B39CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{9E2A4F17-AE08-48D1-9EEE-5224D8B39CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -342,7 +342,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D4569-194C-4724-B72C-A37BD8CDECB7}">
   <dimension ref="A1:G601"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I566" sqref="I566"/>
+    <sheetView topLeftCell="A578" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F566" sqref="F566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="F566">
-        <v>107.7216</v>
+        <v>17.721599999999999</v>
       </c>
       <c r="G566">
         <v>4.4855999999999998</v>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="F571">
-        <v>195.99440000000004</v>
+        <v>15.994400000000001</v>
       </c>
       <c r="G571">
         <v>8.8623999999999992</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>673.88160000000016</v>
+        <v>73.881600000000006</v>
       </c>
       <c r="G574">
         <v>97.194599999999923</v>
@@ -15546,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="F579">
-        <v>100.91129999999997</v>
+        <v>10.911300000000001</v>
       </c>
       <c r="G579">
         <v>16.649999999999999</v>
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="F588">
-        <v>257.59440000000029</v>
+        <v>27.5944</v>
       </c>
       <c r="G588">
         <v>47.815200000000004</v>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="F594">
-        <v>245.0209999999999</v>
+        <v>25.021000000000001</v>
       </c>
       <c r="G594">
         <v>2.6399999999999997</v>
@@ -16091,7 +16091,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16384,7 +16384,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16689,8 +16689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A518476C-BA6B-422C-878D-3EEDF0CA897F}">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18751,8 +18751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D950EBE6-93F9-4F5A-AB85-AD6C8E39625D}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
